--- a/BAYSM_2025_schedule_20250328.xlsx
+++ b/BAYSM_2025_schedule_20250328.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franzolini\Desktop\j-ISBA\BAYSM2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE0394-46F3-4906-A499-51B6CAFFAC8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93961D-7F36-432A-B1B6-8BE169277C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drafted_schedule" sheetId="1" r:id="rId1"/>
@@ -2282,7 +2282,7 @@
   </sheetPr>
   <dimension ref="A1:X989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29024,7 +29024,7 @@
   </sheetPr>
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29598,8 +29598,8 @@
       <c r="E46" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="F46" s="124" t="s">
-        <v>406</v>
+      <c r="F46" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
